--- a/data/trans_bre/IP1002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-44,41%</t>
+          <t>169,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,83%</t>
+          <t>-66,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>163,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-68,92%</t>
+          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,88</t>
+          <t>-0,41; 3,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,74</t>
+          <t>-4,35; 0,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,87</t>
+          <t>-0,26; 2,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,18</t>
+          <t>-1,12; 4,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 54,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,09; 855,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>169,63%</t>
+          <t>-44,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-66,68%</t>
+          <t>-33,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>163,1%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>-68,92%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,06</t>
+          <t>-1,62; 0,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,1</t>
+          <t>-1,6; 0,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,69</t>
+          <t>-0,54; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,16</t>
+          <t>-2,4; 0,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 855,98</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>-28,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-52,47%</t>
+          <t>-72,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,2</t>
+          <t>-3,76; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,28</t>
+          <t>-2,8; 3,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,36</t>
+          <t>-6,63; -0,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,1</t>
+          <t>0,0; 7,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,89; 230,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 105,46</t>
+          <t>-58,72; 341,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-84,42; 33,74</t>
+          <t>-100,0; 0,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>169,63%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-66,68%</t>
+          <t>-55,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>163,1%</t>
+          <t>151,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>18,15%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,06</t>
+          <t>-1,21; 2,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,1</t>
+          <t>-4,53; 0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,69</t>
+          <t>-0,22; 3,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,16</t>
+          <t>-2,67; 3,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-69,93; 564,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,41</t>
+          <t>-88,24; 36,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-40,66; 1044,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 855,98</t>
+          <t>-73,76; 360,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-44,41%</t>
+          <t>349,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-33,83%</t>
+          <t>-55,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-68,92%</t>
+          <t>121,89%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,88</t>
+          <t>-0,23; 5,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,74</t>
+          <t>-3,71; 1,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,87</t>
+          <t>-2,59; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,18</t>
+          <t>-0,98; 3,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>-67,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,24%</t>
+          <t>-27,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,12</t>
+          <t>-2,32; 0,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,29</t>
+          <t>-2,13; 0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,58</t>
+          <t>-0,89; 1,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,21</t>
+          <t>-3,84; -0,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 155,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 21,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 70,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,14; 165,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19,36%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-36,24%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-19,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 1,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 0,25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 0,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 1,14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-45,44; 179,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-67,94; 17,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-65,87; 79,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-56,58; 153,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP1002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,8</t>
+          <t>-3,56; 1,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,71</t>
+          <t>-3,04; 3,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -0,61</t>
+          <t>-6,65; -0,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,83</t>
+          <t>0,0; 8,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 409,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 341,73</t>
+          <t>-66,53; 307,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,51</t>
+          <t>-94,64; 46,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,08</t>
+          <t>-1,18; 2,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,15</t>
+          <t>-4,46; 0,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,94</t>
+          <t>-0,31; 3,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,5</t>
+          <t>-2,5; 3,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,93; 564,67</t>
+          <t>-80,43; 537,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,24; 36,44</t>
+          <t>-87,56; 23,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 1044,55</t>
+          <t>-42,98; 1102,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 360,87</t>
+          <t>-76,02; 344,31</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 5,26</t>
+          <t>-0,19; 4,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,01</t>
+          <t>-3,39; 1,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,0</t>
+          <t>-2,53; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,12</t>
+          <t>-0,8; 3,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,31</t>
+          <t>-2,3; 0,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,78</t>
+          <t>-1,77; 0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,78</t>
+          <t>-0,89; 1,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,3</t>
+          <t>-3,39; -0,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,26</t>
+          <t>-0,76; 1,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,25</t>
+          <t>-2,07; 0,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,65</t>
+          <t>-1,18; 0,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,14</t>
+          <t>-1,03; 1,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 179,97</t>
+          <t>-45,66; 161,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,94; 17,31</t>
+          <t>-69,15; 16,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,87; 79,39</t>
+          <t>-62,9; 79,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 153,96</t>
+          <t>-55,56; 153,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,98</t>
+          <t>-3,79; 2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 3,68</t>
+          <t>-2,57; 3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -0,21</t>
+          <t>-7,18; -0,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,66</t>
+          <t>0,0; 7,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 409,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,53; 307,71</t>
+          <t>-66,79; 243,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-94,64; 46,05</t>
+          <t>-100,0; 15,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,07</t>
+          <t>-1,25; 2,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,26</t>
+          <t>-4,38; 0,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,77</t>
+          <t>-0,29; 3,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,37</t>
+          <t>-3,14; 3,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,43; 537,17</t>
+          <t>-71,54; 898,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,56; 23,97</t>
+          <t>-86,42; 31,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 1102,49</t>
+          <t>-38,62; 1044,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 344,31</t>
+          <t>-75,44; 273,52</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>121,89%</t>
+          <t>104,16%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,79</t>
+          <t>-0,08; 5,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,07</t>
+          <t>-3,33; 0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,0</t>
+          <t>-2,78; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,23</t>
+          <t>-0,76; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 232,84</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,31</t>
+          <t>-2,34; 0,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,78</t>
+          <t>-2,11; 0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,36</t>
+          <t>-0,9; 1,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; -0,29</t>
+          <t>-3,38; -0,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>-6,64%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,25</t>
+          <t>-0,76; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,24</t>
+          <t>-2,07; 0,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,63</t>
+          <t>-1,22; 0,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,1</t>
+          <t>-1,3; 1,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 161,67</t>
+          <t>-50,8; 155,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,15; 16,92</t>
+          <t>-66,55; 21,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-62,9; 79,19</t>
+          <t>-68,12; 70,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 153,94</t>
+          <t>-62,83; 142,67</t>
         </is>
       </c>
     </row>
